--- a/data/evaluation/evaluation_North_Autumn_Onions.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Onions.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6726.964837611391</v>
+        <v>6872.279021561632</v>
       </c>
       <c r="C4" t="n">
-        <v>90882974.96755008</v>
+        <v>93630786.33465974</v>
       </c>
       <c r="D4" t="n">
-        <v>9533.256262555313</v>
+        <v>9676.300240001843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1621803835539969</v>
+        <v>0.1368492336166212</v>
       </c>
     </row>
     <row r="5">
